--- a/data/trans_dic/IP18A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A01-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,64</t>
+          <t>4,07; 9,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,54</t>
+          <t>4,62; 10,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,56</t>
+          <t>3,67; 9,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,01</t>
+          <t>0,0; 8,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,27</t>
+          <t>3,86; 9,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,76</t>
+          <t>4,13; 10,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,59</t>
+          <t>4,09; 9,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 18,11</t>
+          <t>0,0; 9,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,11</t>
+          <t>4,56; 8,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,66</t>
+          <t>5,06; 9,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,59</t>
+          <t>4,3; 8,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 10,71</t>
+          <t>0,53; 6,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,71</t>
+          <t>2,37; 6,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,52</t>
+          <t>1,59; 5,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,0</t>
+          <t>2,9; 7,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,93</t>
+          <t>0,0; 8,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,76</t>
+          <t>3,87; 9,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 10,26</t>
+          <t>1,65; 5,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,27</t>
+          <t>3,7; 9,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,43</t>
+          <t>2,78; 18,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,67</t>
+          <t>3,55; 7,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,51</t>
+          <t>1,87; 4,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,14</t>
+          <t>3,87; 7,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,68</t>
+          <t>2,02; 10,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A01-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>14,67%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,09; 19,32</t>
+          <t>13,69; 26,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,07; 25,45</t>
+          <t>19,96; 32,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,59; 21,17</t>
+          <t>15,88; 28,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 20,96</t>
+          <t>4,22; 27,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,11</t>
+          <t>14,18; 27,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 24,78</t>
+          <t>19,79; 31,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,37; 22,42</t>
+          <t>17,49; 30,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 25,53</t>
+          <t>7,1; 33,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,21</t>
+          <t>15,81; 24,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,48; 23,62</t>
+          <t>21,68; 29,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,2; 20,35</t>
+          <t>18,53; 27,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 19,39</t>
+          <t>7,05; 25,08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,71</t>
+          <t>5,58; 11,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,52</t>
+          <t>6,23; 12,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,0</t>
+          <t>5,59; 11,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,93</t>
+          <t>1,25; 12,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,76</t>
+          <t>4,85; 9,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 10,26</t>
+          <t>5,22; 11,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,27</t>
+          <t>3,7; 9,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,43</t>
+          <t>0,0; 16,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,67</t>
+          <t>5,63; 9,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,51</t>
+          <t>6,45; 10,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,14</t>
+          <t>5,43; 9,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,68</t>
+          <t>1,26; 9,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,64</t>
+          <t>2,36; 8,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,54</t>
+          <t>1,34; 6,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,56</t>
+          <t>2,16; 7,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,01</t>
+          <t>0; 4,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,27</t>
+          <t>2,46; 9,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,76</t>
+          <t>2,79; 9,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,59</t>
+          <t>2,12; 7,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 18,11</t>
+          <t>1,31; 17,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,11</t>
+          <t>2,97; 7,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,66</t>
+          <t>2,5; 6,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,59</t>
+          <t>2,72; 6,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 10,71</t>
+          <t>0,57; 8,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>4,92%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,17</t>
+          <t>2,07; 7,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,31</t>
+          <t>2,06; 7,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,76</t>
+          <t>1,97; 8,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,73</t>
+          <t>0,0; 11,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,52</t>
+          <t>3,08; 9,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,86</t>
+          <t>1,06; 6,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,4</t>
+          <t>4,64; 12,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,83</t>
+          <t>0,0; 20,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 9,94</t>
+          <t>3,32; 7,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 11,22</t>
+          <t>2,32; 5,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 10,46</t>
+          <t>3,76; 8,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,44</t>
+          <t>1,35; 11,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,07%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 10,14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 11,9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,03; 10,73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 7,38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 10,52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 11,71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 11,3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 12,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 9,68</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,6; 11,23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 10,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 8,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP18A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A01-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 26,3</t>
+          <t>14,09; 26,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 32,4</t>
+          <t>20,08; 32,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,88; 28,19</t>
+          <t>16,13; 28,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 27,04</t>
+          <t>4,58; 26,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,18; 27,07</t>
+          <t>14,02; 26,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,79; 31,54</t>
+          <t>19,2; 31,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 30,2</t>
+          <t>17,55; 29,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 33,96</t>
+          <t>6,89; 34,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 24,65</t>
+          <t>15,72; 24,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,68; 29,9</t>
+          <t>21,43; 30,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,53; 27,18</t>
+          <t>18,69; 27,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,05; 25,08</t>
+          <t>8,02; 24,94</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,27</t>
+          <t>5,32; 11,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,26</t>
+          <t>6,22; 12,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,79</t>
+          <t>5,66; 11,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,06</t>
+          <t>1,19; 12,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,85</t>
+          <t>4,49; 9,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,24</t>
+          <t>4,97; 11,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,4</t>
+          <t>3,59; 9,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,5</t>
+          <t>0,0; 14,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,4</t>
+          <t>5,62; 9,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,82</t>
+          <t>6,37; 10,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,64</t>
+          <t>5,54; 9,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 9,21</t>
+          <t>1,06; 9,5</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,88</t>
+          <t>2,34; 9,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,05</t>
+          <t>1,17; 6,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,55</t>
+          <t>2,16; 7,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 9,88</t>
+          <t>2,49; 9,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,24</t>
+          <t>2,65; 9,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 7,16</t>
+          <t>2,14; 7,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 17,92</t>
+          <t>1,33; 18,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,96</t>
+          <t>2,83; 7,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,49</t>
+          <t>2,39; 6,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,28</t>
+          <t>2,49; 6,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 8,43</t>
+          <t>0,59; 9,16</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,45</t>
+          <t>2,15; 7,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 7,73</t>
+          <t>2,11; 7,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,35</t>
+          <t>1,77; 7,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,59</t>
+          <t>0,0; 13,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,74</t>
+          <t>3,2; 9,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 6,09</t>
+          <t>1,25; 6,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,72</t>
+          <t>4,56; 12,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,2</t>
+          <t>0,0; 21,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,31</t>
+          <t>3,19; 7,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,91</t>
+          <t>2,09; 5,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,66</t>
+          <t>4,0; 8,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 11,54</t>
+          <t>1,36; 11,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,14</t>
+          <t>6,72; 10,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 11,9</t>
+          <t>8,13; 11,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,73</t>
+          <t>7,11; 10,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,38</t>
+          <t>2,0; 7,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,52</t>
+          <t>6,59; 10,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,71</t>
+          <t>7,91; 11,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,3</t>
+          <t>7,76; 11,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 12,0</t>
+          <t>4,07; 12,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 9,68</t>
+          <t>7,32; 9,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,23</t>
+          <t>8,6; 11,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,69; 10,33</t>
+          <t>7,84; 10,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,36</t>
+          <t>3,57; 8,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP18A01-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>19,76%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25,39%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23,28%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>19,64%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>25,57%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>21,69%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,48%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>19,76%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>25,39%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>23,28%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>14,53%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,09; 26,3</t>
+          <t>14,39; 26,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,08; 32,44</t>
+          <t>19,52; 30,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,13; 28,18</t>
+          <t>17,53; 29,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 26,16</t>
+          <t>5,11; 31,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,02; 26,95</t>
+          <t>14,06; 26,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,2; 31,36</t>
+          <t>19,95; 32,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 29,89</t>
+          <t>15,55; 28,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 34,87</t>
+          <t>4,25; 27,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,72; 24,38</t>
+          <t>15,86; 24,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,43; 30,07</t>
+          <t>21,69; 30,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,69; 27,47</t>
+          <t>18,24; 26,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 24,94</t>
+          <t>6,98; 24,59</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>7,96%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>9,03%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>8,35%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,94%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,7%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,15%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 11,27</t>
+          <t>4,53; 9,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 12,18</t>
+          <t>5,25; 11,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 11,78</t>
+          <t>4,0; 9,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 12,95</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,71</t>
+          <t>5,58; 11,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,03</t>
+          <t>6,39; 12,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,46</t>
+          <t>5,87; 11,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,04</t>
+          <t>1,16; 12,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,58</t>
+          <t>5,64; 9,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,76</t>
+          <t>6,56; 10,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,78</t>
+          <t>5,53; 9,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,5</t>
+          <t>1,0; 9,18</t>
         </is>
       </c>
     </row>
@@ -936,44 +936,44 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>4,75%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>3,07%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>4,36%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,22%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,11%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,41%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
           <t>5,01%</t>
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,01</t>
+          <t>2,49; 9,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,7</t>
+          <t>2,37; 8,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,66</t>
+          <t>2,14; 7,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,22; 18,58</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 8,42</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 6,73</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 7,77</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>0; 4,25</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 9,21</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 9,33</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 7,18</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 18,58</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,67</t>
+          <t>3,02; 7,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,64</t>
+          <t>2,35; 6,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,2</t>
+          <t>2,74; 6,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 9,16</t>
+          <t>0,59; 8,56</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,17%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>4,4%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>4,07%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,65%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,29</t>
+          <t>3,35; 9,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,82</t>
+          <t>1,26; 6,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,3</t>
+          <t>4,53; 11,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,18</t>
+          <t>0,0; 21,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,71</t>
+          <t>2,09; 7,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,15</t>
+          <t>2,3; 7,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 12,47</t>
+          <t>2,04; 7,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,57</t>
+          <t>0,0; 12,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,08</t>
+          <t>3,19; 7,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,88</t>
+          <t>2,05; 5,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,71</t>
+          <t>3,95; 8,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 11,86</t>
+          <t>1,29; 10,81</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>8,36%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>10,01%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>8,75%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,81%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,19</t>
+          <t>6,81; 10,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,89</t>
+          <t>7,98; 11,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,72</t>
+          <t>7,76; 11,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,8</t>
+          <t>3,52; 12,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,31</t>
+          <t>6,59; 10,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 11,83</t>
+          <t>8,26; 12,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,51</t>
+          <t>6,86; 10,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 12,98</t>
+          <t>2,08; 7,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,32; 9,84</t>
+          <t>7,2; 9,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,26</t>
+          <t>8,61; 11,22</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,84; 10,52</t>
+          <t>7,91; 10,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,3</t>
+          <t>3,39; 8,11</t>
         </is>
       </c>
     </row>
